--- a/tests/unit/apps/sanction_list/test_files/TestSanctionList.xlsx
+++ b/tests/unit/apps/sanction_list/test_files/TestSanctionList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -25,37 +25,10 @@
     <t>DATE OF BIRTH</t>
   </si>
   <si>
-    <t>Ri</t>
+    <t>Name1</t>
   </si>
   <si>
-    <t>Won ho</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>CHUN RYONG</t>
-  </si>
-  <si>
-    <t>FEREIDOUN</t>
-  </si>
-  <si>
-    <t>ABBASI-DAVANI</t>
-  </si>
-  <si>
-    <t>ABDULLAH</t>
-  </si>
-  <si>
-    <t>YAHYA</t>
-  </si>
-  <si>
-    <t>AL HAKIM</t>
-  </si>
-  <si>
-    <t>MOHAMMAD ESHAQ</t>
-  </si>
-  <si>
-    <t>AKHUNZADA</t>
+    <t>Name2</t>
   </si>
 </sst>
 </file>
@@ -78,9 +51,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,7 +104,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -150,10 +123,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -401,7 +371,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -431,7 +400,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -457,7 +425,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -483,7 +450,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -509,7 +475,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -535,7 +500,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -561,7 +525,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -587,7 +550,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -613,7 +575,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -639,7 +600,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -690,7 +650,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -716,7 +675,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -742,7 +700,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -768,7 +725,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -794,7 +750,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -820,7 +775,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -846,7 +800,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -872,7 +825,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -898,7 +850,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -924,7 +875,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -972,7 +922,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1002,7 +951,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1028,7 +976,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1054,7 +1001,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1080,7 +1026,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1106,7 +1051,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1132,7 +1076,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1158,7 +1101,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1184,7 +1126,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1210,7 +1151,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1277,62 +1217,36 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
-        <v>23575</v>
+        <v>23083</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>22010</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>9</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6">
-        <v>1958</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1985</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="7">
-        <v>1966</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
